--- a/src/test/resources/data/dates.xlsx
+++ b/src/test/resources/data/dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fziad\Downloads\Booking\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88EF5C8E-11B3-4B9B-8ECF-5D8B94512BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAED47A-529C-42D5-B926-85FB7C81A837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32B03391-DC0F-4E1C-8DFA-9E88612894EF}"/>
   </bookViews>
@@ -446,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E99109-0A28-4E7C-B57A-7E7E1661320B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="365" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="269" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
